--- a/data/qa_pairs2.xlsx
+++ b/data/qa_pairs2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2325" yWindow="2670" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4140" yWindow="1665" windowWidth="19395" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -455,10 +455,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -486,193 +486,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>帮我查几条文献的核心靶点不为空的文献，返回文献id</t>
+          <t>帮我找三条药物通用名比较多的药物，返回药物ID及药物名称及通用名</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SELECT paper_id FROM ads_phs_paper_rel WHERE data_status = 'ACTIVE'   AND core_target_id IS NOT NULL   AND JSON_LENGTH(core_target_id) &gt; 0 ORDER BY created_ts DESC LIMIT 5</t>
+          <t>SELECT drug_id, drug_name, generic_name FROM ads_phs_drug ORDER BY JSON_LENGTH(generic_name) DESC LIMIT 3;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>以下是整理后的论文编号列表，便于查看：
-1. paper_id: cd83e9b6-baae-473a-bad1-02395195f829  
-2. paper_id: 53cb5e09-0e9f-4544-9c69-f85fae26a09c  
-3. paper_id: fbb17ca9-6a82-4404-866b-92d7fda94f78  
-4. paper_id: 9c68b395-1e1a-3562-9d52-ec9b9cd585b4  
-5. paper_id: a0f9b615-9a4a-4148-ad7c-ce9666510e23</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>帮我找几条药物通用名不为空的数据，返回药物ID及通用名</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SELECT drug_id, generic_name FROM ads_phs_drug WHERE JSON_LENGTH(generic_name) &gt; 0 ORDER BY drug_id LIMIT 5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>以下是整理后的查询结果，每条记录均包含药物ID、通用名称（Generic Name）及其相关详细信息：
-────────────────────────────
-记录 1
-────────────────────────────
-药物ID: 0000d4a23502459386f511f0dfdad0df
-通用名称: Susoctocog alfa
-语言: EN
-状态: ACTIVE
-源码信息:
-  • Code: D10831
-  • Normalized Source ID: a07dbc9f94144f609a25c9d343a2ec5b
-  • Source: KEGG
-────────────────────────────
-记录 2
-────────────────────────────
-药物ID: 000133a233844135a2994ad3dbd3c76f
-通用名称: Paramethasone
-语言: EN
-状态: ACTIVE
-源码信息: 无
-────────────────────────────
-记录 3
-────────────────────────────
-药物ID: 00023bcab2274722b9c6cfde9f264576
-通用名称: indinavir
-语言: EN
-状态: ACTIVE
-源码信息:
-  • Code: 9MG78X43ZT
-  • Normalized Source ID: a69257a1f6e645e29d7e433ddc094e1d
-  • Source: GSRS
-  • Source URL: https://gsrs.ncats.nih.gov/ginas/app/ui/substances/ced0adc1-cbb6-4007-a90a-6fc0b7909e1f
-────────────────────────────
-记录 4
-────────────────────────────
-药物ID: 00199692457c4721b88795b26b04129b
-通用名称: Trastuzumab
-语言: EN
-状态: ACTIVE
-源码信息: 无
-────────────────────────────
-记录 5
-────────────────────────────
-药物ID: 001ab4d02229445bb129a717442d1097
-通用名称: Cefepime
-语言: EN
-状态: ACTIVE
-源码信息:
-  • Code: 807PW4VQE3
-  • Normalized Source ID: a69257a1f6e645e29d7e433ddc094e1d
-  • Source: GSRS
-  • Source URL: https://gsrs.ncats.nih.gov/ginas/app/ui/substances/1ea37786-4d7b-4457-8d77-f0ff52eb8f5d
-────────────────────────────
-以上即为整理后的易于查看的数据库查询结果。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>帮我查下药物索托拉西布的ID，并通过药物ID查找临床试验中试验药物是所托拉西部的临床记录，返回临床试验ID？</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SELECT    ct.clinical_trial_id FROM ads_phs_drug AS d JOIN ads_phs_ct AS ct    ON JSON_CONTAINS(ct.drug_id, JSON_QUOTE(d.drug_id)) = 1 WHERE JSON_SEARCH(d.drug_name, 'one', '索托拉西布', NULL, '$[*].name') IS NOT NULL ORDER BY ct.created_ts DESC LIMIT 5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>以下是整理后的临床试验ID列表：
-1. 5e9559585a25839a5a5e88a93229983a  
-2. 25a802a35a5849ed85032e889a5d425d  
-3. 2529ad048e2029d5aea5e5e9402805e3  
-4. 0a2092e22e99e38aa028d2452222d098  
-5. 92d43a9ee28a9a9452535e4e025922a5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>帮我找几条专利延长类型为PTE，并且关联的药物不为空，返回专利id及关联的药物ID，延长类型？</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SELECT    patent_id,   drug_id,   extension_type FROM ads_phs_patent_extension WHERE extension_type = 'PTE'   AND drug_id IS NOT NULL   AND JSON_LENGTH(drug_id) &gt; 0 ORDER BY created_ts DESC LIMIT 5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>以下是整理后的查询结果，采用表格方式展示，以便快速查阅各字段信息：
-------------------------------------------------------------
-Patents ID                           | Drug ID                                  | Extension Type
----------------------------------------------------------------------------------------
-ff181981-057b-41c0-b613-2df3b70ae978   | ["d367fa50d1d74df1a3b012e10f7408d5"]       | PTE
-b5f128ac-1d73-4f6c-a015-ef2b41f71055   | ["d367fa50d1d74df1a3b012e10f7408d5"]       | PTE
-3c425356-acf3-4d8f-bc8f-344c1931c6a0   | ["3977a18e334b47a58108a0df2161d768"]       | PTE
-d4bb9e39-bd66-4b27-92c1-2d254ded24a9   | ["3977a18e334b47a58108a0df2161d768"]       | PTE
-937b93b6-c383-45a9-a905-49eb05ad5759   | ["cc12b0ab972347fa97dd8a38d5c9fa54"]       | PTE
-------------------------------------------------------------
-注意：
-1. Drug ID 字段中数据以字符串形式保存的列表格式显示（例如："[ ... ]"）。
-2. 此处每一行为一个查询结果记录，方便快速查找对应的专利编号、药物编号及扩展类型。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>帮我查下药物索托拉西布都有哪些别名？</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SELECT alias FROM ads_phs_drug WHERE JSON_SEARCH(drug_name, 'one', '索托拉西布') IS NOT NULL AND data_status='ACTIVE' ORDER BY updated_ts DESC LIMIT 5;</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>下面是对查询结果的整理展示：
-记录中的 alias 字段包含两个条目，每个条目都含有语言、名称、状态以及来源信息。整理后的内容如下：
-1. 条目 1：
-   • 语言：CN  
-   • 名称：索托雷塞  
-   • 状态：ACTIVE  
-   • 来源信息：  
-  – normalized_source_id：0b0db149ab6e4a978c1c4e83498d6d5a  
-  – 来源：NEWS  
-  – 链接：https://mp.weixin.qq.com/s?__biz=MzkzNjIzMTU0Nw==&amp;mid=2247544624&amp;idx=1&amp;sn=2ab6c478dc27ece2d6460b9dc1249cba
-2. 条目 2：
-   • 语言：CN  
-   • 名称：索拖拉西布  
-   • 状态：ACTIVE  
-   • 来源信息：  
-  – normalized_source_id：0b0db149ab6e4a978c1c4e83498d6d5a  
-  – 来源：NEWS  
-  – 链接：https://www.toutiao.com/article/7327142320594338355/
-这样，每条信息都一目了然，便于查阅。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>帮我找三条药物通用名比较多的药物，返回药物ID及药物名称及通用名</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SELECT drug_id, drug_name, generic_name FROM ads_phs_drug ORDER BY JSON_LENGTH(generic_name) DESC LIMIT 3;</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>以下是整理后的结果，每条记录均展示了药品ID、药品名称（多语言）及其来源信息，以及通用名称信息：
 ──────────────────────────────
@@ -759,6 +581,49 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>帮我统计下生物类似药最多的原研药物，返回原研药物ID，还有生物类似药个数</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SELECT JSON_UNQUOTE(JSON_EXTRACT(original_drug_id, '$[0]')) AS original_drug_id, COUNT(*) AS biosimilar_count FROM ads_phs_drug WHERE original_drug_id IS NOT NULL GROUP BY original_drug_id ORDER BY biosimilar_count DESC LIMIT 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>以下是整理后的数据展示：
+----------------------------------------
+原研药编号：68431d4745744d9e9e17a3073edd3920
+生物仿制药数量：86
+----------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>帮我查几条文献的核心靶点不为空的文献，返回文献id</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SELECT paper_id FROM ads_phs_paper_rel WHERE core_target_id IS NOT NULL AND JSON_LENGTH(core_target_id) &gt; 0 ORDER BY created_ts DESC LIMIT 5;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>以下是整理后的查询结果列表：
+1. paper_id: f6d61b1b-14a7-46ae-bd48-3f9a0c8a5e23  
+2. paper_id: dab9b088-1f97-4b35-875e-ba97c1831c2c  
+3. paper_id: f82a36b0-ae5a-4dac-b482-f762005641a2  
+4. paper_id: 99ed3257-43b0-4c42-8fac-0ad0e55e8f33  
+5. paper_id: a35232f5-a318-4097-b9d2-62c7ed403780</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
